--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>684.0530070581725</v>
+        <v>798.5270819625409</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.9515025457868</v>
+        <v>1092.5799820697</v>
       </c>
       <c r="AC2" t="n">
-        <v>846.6256047590005</v>
+        <v>988.3056820266036</v>
       </c>
       <c r="AD2" t="n">
-        <v>684053.0070581725</v>
+        <v>798527.081962541</v>
       </c>
       <c r="AE2" t="n">
-        <v>935951.5025457868</v>
+        <v>1092579.9820697</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.06047331596299e-07</v>
+        <v>1.531717968690139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>846625.6047590005</v>
+        <v>988305.6820266036</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.4240625390735</v>
+        <v>584.9838281797088</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.3880824654959</v>
+        <v>800.4006813805642</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.2163075775891</v>
+        <v>724.0115637190141</v>
       </c>
       <c r="AD3" t="n">
-        <v>491424.0625390735</v>
+        <v>584983.8281797088</v>
       </c>
       <c r="AE3" t="n">
-        <v>672388.0824654959</v>
+        <v>800400.6813805641</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.157902207241611e-06</v>
+        <v>1.957491132050692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>608216.3075775891</v>
+        <v>724011.5637190142</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.3031422117278</v>
+        <v>527.5337645023538</v>
       </c>
       <c r="AB4" t="n">
-        <v>607.915160445333</v>
+        <v>721.7949697392751</v>
       </c>
       <c r="AC4" t="n">
-        <v>549.896590746716</v>
+        <v>652.9078708729604</v>
       </c>
       <c r="AD4" t="n">
-        <v>444303.1422117278</v>
+        <v>527533.7645023538</v>
       </c>
       <c r="AE4" t="n">
-        <v>607915.160445333</v>
+        <v>721794.9697392751</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.253695757718752e-06</v>
+        <v>2.119434882044363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.16319444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>549896.590746716</v>
+        <v>652907.8708729604</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.9356374589896</v>
+        <v>497.080918895044</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.3650007228796</v>
+        <v>680.1280428946239</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.3119199521581</v>
+        <v>615.2175770464637</v>
       </c>
       <c r="AD5" t="n">
-        <v>413935.6374589896</v>
+        <v>497080.918895044</v>
       </c>
       <c r="AE5" t="n">
-        <v>566365.0007228795</v>
+        <v>680128.0428946239</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.307941423242358e-06</v>
+        <v>2.211139871075867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>512311.9199521581</v>
+        <v>615217.5770464637</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>402.4555093076125</v>
+        <v>475.3569882482293</v>
       </c>
       <c r="AB6" t="n">
-        <v>550.6573829186561</v>
+        <v>650.404402591472</v>
       </c>
       <c r="AC6" t="n">
-        <v>498.1034151453898</v>
+        <v>588.3307192564534</v>
       </c>
       <c r="AD6" t="n">
-        <v>402455.5093076125</v>
+        <v>475356.9882482293</v>
       </c>
       <c r="AE6" t="n">
-        <v>550657.3829186561</v>
+        <v>650404.402591472</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.338588823772691e-06</v>
+        <v>2.262950822279982e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.13888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>498103.4151453897</v>
+        <v>588330.7192564534</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>382.7852370165172</v>
+        <v>466.0157697985921</v>
       </c>
       <c r="AB7" t="n">
-        <v>523.7436485788116</v>
+        <v>637.6233354032051</v>
       </c>
       <c r="AC7" t="n">
-        <v>473.7582898372765</v>
+        <v>576.7694591822943</v>
       </c>
       <c r="AD7" t="n">
-        <v>382785.2370165171</v>
+        <v>466015.7697985921</v>
       </c>
       <c r="AE7" t="n">
-        <v>523743.6485788116</v>
+        <v>637623.3354032051</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.36017971904349e-06</v>
+        <v>2.299451301993468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>473758.2898372766</v>
+        <v>576769.4591822943</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>374.4243531327635</v>
+        <v>457.6548859148385</v>
       </c>
       <c r="AB8" t="n">
-        <v>512.3039183928955</v>
+        <v>626.1836052172891</v>
       </c>
       <c r="AC8" t="n">
-        <v>463.4103514445423</v>
+        <v>566.4215207895601</v>
       </c>
       <c r="AD8" t="n">
-        <v>374424.3531327635</v>
+        <v>457654.8859148385</v>
       </c>
       <c r="AE8" t="n">
-        <v>512303.9183928955</v>
+        <v>626183.6052172892</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.380066684201025e-06</v>
+        <v>2.333071203307943e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.67881944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>463410.3514445423</v>
+        <v>566421.52078956</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>368.9981904494477</v>
+        <v>452.2287232315227</v>
       </c>
       <c r="AB9" t="n">
-        <v>504.8796032241802</v>
+        <v>618.7592900485739</v>
       </c>
       <c r="AC9" t="n">
-        <v>456.6946024954373</v>
+        <v>559.7057718404552</v>
       </c>
       <c r="AD9" t="n">
-        <v>368998.1904494477</v>
+        <v>452228.7232315227</v>
       </c>
       <c r="AE9" t="n">
-        <v>504879.6032241802</v>
+        <v>618759.2900485739</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388142846107723e-06</v>
+        <v>2.34672435571969e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.60069444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>456694.6024954373</v>
+        <v>559705.7718404552</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>361.8281394433816</v>
+        <v>434.6442775294268</v>
       </c>
       <c r="AB10" t="n">
-        <v>495.069223117355</v>
+        <v>594.699475667973</v>
       </c>
       <c r="AC10" t="n">
-        <v>447.8205112970523</v>
+        <v>537.9421923761773</v>
       </c>
       <c r="AD10" t="n">
-        <v>361828.1394433816</v>
+        <v>434644.2775294268</v>
       </c>
       <c r="AE10" t="n">
-        <v>495069.223117355</v>
+        <v>594699.475667973</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.400327113492974e-06</v>
+        <v>2.367322464271517e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.47048611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>447820.5112970524</v>
+        <v>537942.1923761773</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>355.6883896664819</v>
+        <v>428.5045277525271</v>
       </c>
       <c r="AB11" t="n">
-        <v>486.6685466059574</v>
+        <v>586.2987991565755</v>
       </c>
       <c r="AC11" t="n">
-        <v>440.2215835614791</v>
+        <v>530.3432646406039</v>
       </c>
       <c r="AD11" t="n">
-        <v>355688.3896664819</v>
+        <v>428504.5277525271</v>
       </c>
       <c r="AE11" t="n">
-        <v>486668.5466059574</v>
+        <v>586298.7991565755</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.408776739534086e-06</v>
+        <v>2.381606976332362e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.38368055555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>440221.5835614791</v>
+        <v>530343.2646406039</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>350.6350796697906</v>
+        <v>423.4512177558358</v>
       </c>
       <c r="AB12" t="n">
-        <v>479.7543849321815</v>
+        <v>579.3846374827995</v>
       </c>
       <c r="AC12" t="n">
-        <v>433.9672997737615</v>
+        <v>524.0889808528864</v>
       </c>
       <c r="AD12" t="n">
-        <v>350635.0796697906</v>
+        <v>423451.2177558359</v>
       </c>
       <c r="AE12" t="n">
-        <v>479754.3849321815</v>
+        <v>579384.6374827995</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.413048235571444e-06</v>
+        <v>2.388828152318922e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>433967.2997737615</v>
+        <v>524088.9808528863</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>351.2961327480195</v>
+        <v>424.1122708340647</v>
       </c>
       <c r="AB13" t="n">
-        <v>480.6588669174178</v>
+        <v>580.2891194680357</v>
       </c>
       <c r="AC13" t="n">
-        <v>434.7854592677753</v>
+        <v>524.9071403469001</v>
       </c>
       <c r="AD13" t="n">
-        <v>351296.1327480195</v>
+        <v>424112.2708340647</v>
       </c>
       <c r="AE13" t="n">
-        <v>480658.8669174177</v>
+        <v>580289.1194680356</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.412418014844621e-06</v>
+        <v>2.387762732911069e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>434785.4592677753</v>
+        <v>524907.1403469001</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>553.6366063979989</v>
+        <v>654.4570334905795</v>
       </c>
       <c r="AB2" t="n">
-        <v>757.5100295970068</v>
+        <v>895.4569858284032</v>
       </c>
       <c r="AC2" t="n">
-        <v>685.2143355442716</v>
+        <v>809.9958278827125</v>
       </c>
       <c r="AD2" t="n">
-        <v>553636.6063979989</v>
+        <v>654457.0334905796</v>
       </c>
       <c r="AE2" t="n">
-        <v>757510.0295970067</v>
+        <v>895456.9858284032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.045735057443322e-06</v>
+        <v>1.810994568690163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.04340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>685214.3355442716</v>
+        <v>809995.8278827126</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>419.8990857269637</v>
+        <v>500.5383771318243</v>
       </c>
       <c r="AB3" t="n">
-        <v>574.5244537318914</v>
+        <v>684.8586897864787</v>
       </c>
       <c r="AC3" t="n">
-        <v>519.6926462178542</v>
+        <v>619.4967376384645</v>
       </c>
       <c r="AD3" t="n">
-        <v>419899.0857269637</v>
+        <v>500538.3771318243</v>
       </c>
       <c r="AE3" t="n">
-        <v>574524.4537318915</v>
+        <v>684858.6897864788</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273098161278326e-06</v>
+        <v>2.204739947345067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>519692.6462178542</v>
+        <v>619496.7376384645</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>381.8521461723736</v>
+        <v>462.4060967226624</v>
       </c>
       <c r="AB4" t="n">
-        <v>522.4669525207917</v>
+        <v>632.6844214531812</v>
       </c>
       <c r="AC4" t="n">
-        <v>472.6034398591798</v>
+        <v>572.3019082478513</v>
       </c>
       <c r="AD4" t="n">
-        <v>381852.1461723736</v>
+        <v>462406.0967226624</v>
       </c>
       <c r="AE4" t="n">
-        <v>522466.9525207916</v>
+        <v>632684.4214531812</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.360411774645719e-06</v>
+        <v>2.355948877805574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.40798611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>472603.4398591798</v>
+        <v>572301.9082478513</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>357.0553178631163</v>
+        <v>437.6945197594258</v>
       </c>
       <c r="AB5" t="n">
-        <v>488.5388380692086</v>
+        <v>598.8729516542475</v>
       </c>
       <c r="AC5" t="n">
-        <v>441.9133770324482</v>
+        <v>541.7173576718319</v>
       </c>
       <c r="AD5" t="n">
-        <v>357055.3178631163</v>
+        <v>437694.5197594258</v>
       </c>
       <c r="AE5" t="n">
-        <v>488538.8380692085</v>
+        <v>598872.9516542475</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404141020721036e-06</v>
+        <v>2.431678792922824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.93055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>441913.3770324482</v>
+        <v>541717.3576718319</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>344.9290539791988</v>
+        <v>425.5682558755083</v>
       </c>
       <c r="AB6" t="n">
-        <v>471.9471488502265</v>
+        <v>582.2812624352654</v>
       </c>
       <c r="AC6" t="n">
-        <v>426.9051753459437</v>
+        <v>526.7091559853275</v>
       </c>
       <c r="AD6" t="n">
-        <v>344929.0539791988</v>
+        <v>425568.2558755082</v>
       </c>
       <c r="AE6" t="n">
-        <v>471947.1488502265</v>
+        <v>582281.2624352654</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.436279964136966e-06</v>
+        <v>2.487336726120538e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.59201388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>426905.1753459437</v>
+        <v>526709.1559853274</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.0948351356494</v>
+        <v>406.6435586966498</v>
       </c>
       <c r="AB7" t="n">
-        <v>459.8597808902534</v>
+        <v>556.387656856436</v>
       </c>
       <c r="AC7" t="n">
-        <v>415.9714088193429</v>
+        <v>503.2867997810379</v>
       </c>
       <c r="AD7" t="n">
-        <v>336094.8351356494</v>
+        <v>406643.5586966499</v>
       </c>
       <c r="AE7" t="n">
-        <v>459859.7808902534</v>
+        <v>556387.656856436</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.455017620102977e-06</v>
+        <v>2.519786430223789e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>415971.4088193428</v>
+        <v>503286.7997810378</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>328.8123803253716</v>
+        <v>399.3611038863721</v>
       </c>
       <c r="AB8" t="n">
-        <v>449.8956049395998</v>
+        <v>546.4234809057824</v>
       </c>
       <c r="AC8" t="n">
-        <v>406.958199836611</v>
+        <v>494.2735907983059</v>
       </c>
       <c r="AD8" t="n">
-        <v>328812.3803253716</v>
+        <v>399361.1038863721</v>
       </c>
       <c r="AE8" t="n">
-        <v>449895.6049395998</v>
+        <v>546423.4809057824</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.467694513636683e-06</v>
+        <v>2.541740160448281e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.27951388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>406958.1998366109</v>
+        <v>494273.5907983059</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>324.6131567201213</v>
+        <v>395.1618802811216</v>
       </c>
       <c r="AB9" t="n">
-        <v>444.1500419462254</v>
+        <v>540.6779179124081</v>
       </c>
       <c r="AC9" t="n">
-        <v>401.7609853113759</v>
+        <v>489.0763762730709</v>
       </c>
       <c r="AD9" t="n">
-        <v>324613.1567201213</v>
+        <v>395161.8802811216</v>
       </c>
       <c r="AE9" t="n">
-        <v>444150.0419462255</v>
+        <v>540677.9179124081</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.471968437742332e-06</v>
+        <v>2.54914170378111e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>401760.9853113759</v>
+        <v>489076.3762730709</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>323.5091060655212</v>
+        <v>394.0578296265215</v>
       </c>
       <c r="AB10" t="n">
-        <v>442.6394311333244</v>
+        <v>539.167307099507</v>
       </c>
       <c r="AC10" t="n">
-        <v>400.3945450743025</v>
+        <v>487.7099360359975</v>
       </c>
       <c r="AD10" t="n">
-        <v>323509.1060655212</v>
+        <v>394057.8296265216</v>
       </c>
       <c r="AE10" t="n">
-        <v>442639.4311333243</v>
+        <v>539167.307099507</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476121629528613e-06</v>
+        <v>2.556334163968944e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>400394.5450743025</v>
+        <v>487709.9360359975</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.9690116313594</v>
+        <v>377.8919365330823</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.2720559972644</v>
+        <v>517.0484189801945</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.4481966178935</v>
+        <v>467.7020435547378</v>
       </c>
       <c r="AD2" t="n">
-        <v>304969.0116313593</v>
+        <v>377891.9365330823</v>
       </c>
       <c r="AE2" t="n">
-        <v>417272.0559972644</v>
+        <v>517048.4189801945</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.479760969670989e-06</v>
+        <v>2.800026183965569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>377448.1966178935</v>
+        <v>467702.0435547378</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.1707012607512</v>
+        <v>324.8930092037382</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.3452755031158</v>
+        <v>444.5329484605303</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.2407439463418</v>
+        <v>402.1073477653683</v>
       </c>
       <c r="AD3" t="n">
-        <v>261170.7012607512</v>
+        <v>324893.0092037382</v>
       </c>
       <c r="AE3" t="n">
-        <v>357345.2755031158</v>
+        <v>444532.9484605304</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.633637788640235e-06</v>
+        <v>3.091194238164902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.31423611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>323240.7439463418</v>
+        <v>402107.3477653683</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.703997646035</v>
+        <v>320.4263055890252</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.2337345602392</v>
+        <v>438.4214075178241</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.7124798935573</v>
+        <v>396.5790837126323</v>
       </c>
       <c r="AD4" t="n">
-        <v>256703.997646035</v>
+        <v>320426.3055890251</v>
       </c>
       <c r="AE4" t="n">
-        <v>351233.7345602391</v>
+        <v>438421.4075178241</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.651959665176584e-06</v>
+        <v>3.125863171251147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.15798611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>317712.4798935573</v>
+        <v>396579.0837126323</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.696443662323</v>
+        <v>462.6695794026537</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.0951340618624</v>
+        <v>633.0449300799808</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.5990370566819</v>
+        <v>572.6280104372862</v>
       </c>
       <c r="AD2" t="n">
-        <v>386696.443662323</v>
+        <v>462669.5794026537</v>
       </c>
       <c r="AE2" t="n">
-        <v>529095.1340618624</v>
+        <v>633044.9300799808</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30797230439366e-06</v>
+        <v>2.382841480007698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>478599.0370566819</v>
+        <v>572628.0104372862</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.7207389107239</v>
+        <v>386.608444287932</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.14182300919</v>
+        <v>528.9747294355624</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.5668841114883</v>
+        <v>478.4901236789271</v>
       </c>
       <c r="AD3" t="n">
-        <v>310720.7389107239</v>
+        <v>386608.444287932</v>
       </c>
       <c r="AE3" t="n">
-        <v>425141.82300919</v>
+        <v>528974.7294355624</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.491577663245049e-06</v>
+        <v>2.7173305693815e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>384566.8841114883</v>
+        <v>478490.1236789271</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.2387158820576</v>
+        <v>357.6298799888443</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.4856596151722</v>
+        <v>489.3249793175217</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.4547475396353</v>
+        <v>442.6244900633785</v>
       </c>
       <c r="AD4" t="n">
-        <v>291238.7158820577</v>
+        <v>357629.8799888443</v>
       </c>
       <c r="AE4" t="n">
-        <v>398485.6596151722</v>
+        <v>489324.9793175217</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557333281724607e-06</v>
+        <v>2.837123025789273e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.36631944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>360454.7475396353</v>
+        <v>442624.4900633785</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.8127219389179</v>
+        <v>347.2038860457046</v>
       </c>
       <c r="AB5" t="n">
-        <v>384.2203547397781</v>
+        <v>475.0596744421276</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.5509033400677</v>
+        <v>429.7206458638109</v>
       </c>
       <c r="AD5" t="n">
-        <v>280812.7219389179</v>
+        <v>347203.8860457045</v>
       </c>
       <c r="AE5" t="n">
-        <v>384220.3547397782</v>
+        <v>475059.6744421276</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.583393230875071e-06</v>
+        <v>2.884598593577693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.13194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>347550.9033400677</v>
+        <v>429720.6458638109</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>281.8544204845796</v>
+        <v>348.2455845913663</v>
       </c>
       <c r="AB6" t="n">
-        <v>385.6456526464489</v>
+        <v>476.4849723487983</v>
       </c>
       <c r="AC6" t="n">
-        <v>348.840172814944</v>
+        <v>431.0099153386871</v>
       </c>
       <c r="AD6" t="n">
-        <v>281854.4204845796</v>
+        <v>348245.5845913662</v>
       </c>
       <c r="AE6" t="n">
-        <v>385645.6526464489</v>
+        <v>476484.9723487983</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.586537952731012e-06</v>
+        <v>2.890327593844941e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.10590277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>348840.1728149439</v>
+        <v>431009.9153386871</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.6952658367952</v>
+        <v>322.0311247187653</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.3805667291886</v>
+        <v>440.6171918507578</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.5133687818186</v>
+        <v>398.5653054706335</v>
       </c>
       <c r="AD2" t="n">
-        <v>251695.2658367952</v>
+        <v>322031.1247187653</v>
       </c>
       <c r="AE2" t="n">
-        <v>344380.5667291885</v>
+        <v>440617.1918507578</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.624108970290917e-06</v>
+        <v>3.182730293100424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.95659722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>311513.3687818186</v>
+        <v>398565.3054706334</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.2383918357343</v>
+        <v>299.7716902591879</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.9682780455649</v>
+        <v>410.160851606223</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.8583230883447</v>
+        <v>371.0156755932951</v>
       </c>
       <c r="AD3" t="n">
-        <v>238238.3918357343</v>
+        <v>299771.6902591879</v>
       </c>
       <c r="AE3" t="n">
-        <v>325968.2780455649</v>
+        <v>410160.851606223</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69403984862506e-06</v>
+        <v>3.31977228287364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>294858.3230883447</v>
+        <v>371015.6755932951</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.844097541762</v>
+        <v>691.6915280773675</v>
       </c>
       <c r="AB2" t="n">
-        <v>793.3682751728129</v>
+        <v>946.4028639920135</v>
       </c>
       <c r="AC2" t="n">
-        <v>717.6503204896865</v>
+        <v>856.079502937377</v>
       </c>
       <c r="AD2" t="n">
-        <v>579844.0975417621</v>
+        <v>691691.5280773675</v>
       </c>
       <c r="AE2" t="n">
-        <v>793368.2751728129</v>
+        <v>946402.8639920135</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.007577965832021e-06</v>
+        <v>1.733518955092784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.61631944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>717650.3204896864</v>
+        <v>856079.502937377</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>434.6566219766847</v>
+        <v>526.1526395322578</v>
       </c>
       <c r="AB3" t="n">
-        <v>594.7163658853099</v>
+        <v>719.9052536242563</v>
       </c>
       <c r="AC3" t="n">
-        <v>537.9574706148769</v>
+        <v>651.1985066117259</v>
       </c>
       <c r="AD3" t="n">
-        <v>434656.6219766847</v>
+        <v>526152.6395322578</v>
       </c>
       <c r="AE3" t="n">
-        <v>594716.3658853099</v>
+        <v>719905.2536242562</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.244145575441468e-06</v>
+        <v>2.140529081679191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>537957.4706148769</v>
+        <v>651198.5066117259</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.3665078022821</v>
+        <v>476.7721597224107</v>
       </c>
       <c r="AB4" t="n">
-        <v>540.9578983143889</v>
+        <v>652.340702635406</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.3296357384417</v>
+        <v>590.0822215418085</v>
       </c>
       <c r="AD4" t="n">
-        <v>395366.5078022821</v>
+        <v>476772.1597224107</v>
       </c>
       <c r="AE4" t="n">
-        <v>540957.8983143889</v>
+        <v>652340.7026354061</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330339843073799e-06</v>
+        <v>2.288824699316682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.61631944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>489329.6357384417</v>
+        <v>590082.2215418085</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.5357880272342</v>
+        <v>449.7658229658977</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.9293649992163</v>
+        <v>615.3894412496545</v>
       </c>
       <c r="AC5" t="n">
-        <v>468.4989133221195</v>
+        <v>556.6575366812921</v>
       </c>
       <c r="AD5" t="n">
-        <v>378535.7880272341</v>
+        <v>449765.8229658977</v>
       </c>
       <c r="AE5" t="n">
-        <v>517929.3649992163</v>
+        <v>615389.4412496545</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.380137253107914e-06</v>
+        <v>2.374500207452057e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>468498.9133221195</v>
+        <v>556657.5366812921</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.1824001950827</v>
+        <v>439.5027112606397</v>
       </c>
       <c r="AB6" t="n">
-        <v>490.0809618391681</v>
+        <v>601.3469990379874</v>
       </c>
       <c r="AC6" t="n">
-        <v>443.308322674187</v>
+        <v>543.9552854456151</v>
       </c>
       <c r="AD6" t="n">
-        <v>358182.4001950826</v>
+        <v>439502.7112606397</v>
       </c>
       <c r="AE6" t="n">
-        <v>490080.9618391681</v>
+        <v>601346.9990379874</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.405382936714829e-06</v>
+        <v>2.417934931662926e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.78298611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>443308.322674187</v>
+        <v>543955.2854456151</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>347.7193148350183</v>
+        <v>429.0396259005754</v>
       </c>
       <c r="AB7" t="n">
-        <v>475.7649068507801</v>
+        <v>587.0309440495994</v>
       </c>
       <c r="AC7" t="n">
-        <v>430.3585718811814</v>
+        <v>531.0055346526094</v>
       </c>
       <c r="AD7" t="n">
-        <v>347719.3148350184</v>
+        <v>429039.6259005754</v>
       </c>
       <c r="AE7" t="n">
-        <v>475764.9068507801</v>
+        <v>587030.9440495993</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.430030381373714e-06</v>
+        <v>2.46034039700624e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.52256944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>430358.5718811814</v>
+        <v>531005.5346526094</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>341.1438360595014</v>
+        <v>412.2885301435934</v>
       </c>
       <c r="AB8" t="n">
-        <v>466.7680467004676</v>
+        <v>564.1113558287082</v>
       </c>
       <c r="AC8" t="n">
-        <v>422.2203594364423</v>
+        <v>510.2733597636761</v>
       </c>
       <c r="AD8" t="n">
-        <v>341143.8360595014</v>
+        <v>412288.5301435934</v>
       </c>
       <c r="AE8" t="n">
-        <v>466768.0467004676</v>
+        <v>564111.3558287082</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.44204301945018e-06</v>
+        <v>2.481007915066768e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>422220.3594364423</v>
+        <v>510273.3597636761</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>334.2744058222279</v>
+        <v>405.41909990632</v>
       </c>
       <c r="AB9" t="n">
-        <v>457.3689891919568</v>
+        <v>554.7122983201974</v>
       </c>
       <c r="AC9" t="n">
-        <v>413.7183347848837</v>
+        <v>501.7713351121174</v>
       </c>
       <c r="AD9" t="n">
-        <v>334274.4058222279</v>
+        <v>405419.09990632</v>
       </c>
       <c r="AE9" t="n">
-        <v>457368.9891919568</v>
+        <v>554712.2983201974</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.452619884051371e-06</v>
+        <v>2.499205211845161e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>413718.3347848837</v>
+        <v>501771.3351121173</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>331.776361629264</v>
+        <v>402.9210557133561</v>
       </c>
       <c r="AB10" t="n">
-        <v>453.9510549212117</v>
+        <v>551.2943640494524</v>
       </c>
       <c r="AC10" t="n">
-        <v>410.6266033638377</v>
+        <v>498.6796036910714</v>
       </c>
       <c r="AD10" t="n">
-        <v>331776.361629264</v>
+        <v>402921.0557133561</v>
       </c>
       <c r="AE10" t="n">
-        <v>453951.0549212117</v>
+        <v>551294.3640494524</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.456161458623715e-06</v>
+        <v>2.505298424341093e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.26215277777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>410626.6033638376</v>
+        <v>498679.6036910714</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>330.0143264962025</v>
+        <v>401.1590205802945</v>
       </c>
       <c r="AB11" t="n">
-        <v>451.5401607166531</v>
+        <v>548.8834698448936</v>
       </c>
       <c r="AC11" t="n">
-        <v>408.4458015184508</v>
+        <v>496.4988018456845</v>
       </c>
       <c r="AD11" t="n">
-        <v>330014.3264962025</v>
+        <v>401159.0205802945</v>
       </c>
       <c r="AE11" t="n">
-        <v>451540.1607166532</v>
+        <v>548883.4698448937</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.461282384018862e-06</v>
+        <v>2.514108880247374e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH11" t="n">
-        <v>408445.8015184508</v>
+        <v>496498.8018456845</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.0904623390986</v>
+        <v>297.9449253479</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.4516773301079</v>
+        <v>407.6613912634189</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.5362891780075</v>
+        <v>368.7547602375935</v>
       </c>
       <c r="AD2" t="n">
-        <v>229090.4623390986</v>
+        <v>297944.9253479</v>
       </c>
       <c r="AE2" t="n">
-        <v>313451.6773301079</v>
+        <v>407661.3912634189</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700515568879988e-06</v>
+        <v>3.408956180735546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.61805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>283536.2891780075</v>
+        <v>368754.7602375935</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.5528766324304</v>
+        <v>287.7899536668616</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.3478847327517</v>
+        <v>393.7669110036902</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.6332795934507</v>
+        <v>356.1863496728278</v>
       </c>
       <c r="AD3" t="n">
-        <v>227552.8766324304</v>
+        <v>287789.9536668616</v>
       </c>
       <c r="AE3" t="n">
-        <v>311347.8847327516</v>
+        <v>393766.9110036902</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.715894094654467e-06</v>
+        <v>3.43978490200626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.48784722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>281633.2795934507</v>
+        <v>356186.3496728278</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.3573345695401</v>
+        <v>560.414511158118</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.6177029240448</v>
+        <v>766.7838579098559</v>
       </c>
       <c r="AC2" t="n">
-        <v>572.2415572414957</v>
+        <v>693.6030826988423</v>
       </c>
       <c r="AD2" t="n">
-        <v>462357.3345695401</v>
+        <v>560414.511158118</v>
       </c>
       <c r="AE2" t="n">
-        <v>632617.7029240448</v>
+        <v>766783.8579098559</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.166321462659042e-06</v>
+        <v>2.065641976101307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>572241.5572414957</v>
+        <v>693603.0826988423</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.1882151894689</v>
+        <v>442.7022291439885</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.2983828723451</v>
+        <v>605.7247205587522</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.7414845771805</v>
+        <v>547.9152033686088</v>
       </c>
       <c r="AD3" t="n">
-        <v>364188.2151894689</v>
+        <v>442702.2291439885</v>
       </c>
       <c r="AE3" t="n">
-        <v>498298.3828723451</v>
+        <v>605724.7205587522</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.377314665125101e-06</v>
+        <v>2.439326615919468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>450741.4845771805</v>
+        <v>547915.2033686088</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.0684918672306</v>
+        <v>410.4971649671786</v>
       </c>
       <c r="AB4" t="n">
-        <v>454.3507604006741</v>
+        <v>561.6603309648834</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.9881615133303</v>
+        <v>508.0562572728198</v>
       </c>
       <c r="AD4" t="n">
-        <v>332068.4918672306</v>
+        <v>410497.1649671786</v>
       </c>
       <c r="AE4" t="n">
-        <v>454350.7604006741</v>
+        <v>561660.3309648834</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.453989709341632e-06</v>
+        <v>2.575123816711777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.85243055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>410988.1615133303</v>
+        <v>508056.2572728198</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>319.700519284368</v>
+        <v>388.3150301485521</v>
       </c>
       <c r="AB5" t="n">
-        <v>437.4283546763602</v>
+        <v>531.3097554993171</v>
       </c>
       <c r="AC5" t="n">
-        <v>395.6808064405994</v>
+        <v>480.6022981323869</v>
       </c>
       <c r="AD5" t="n">
-        <v>319700.519284368</v>
+        <v>388315.0301485521</v>
       </c>
       <c r="AE5" t="n">
-        <v>437428.3546763603</v>
+        <v>531309.7554993171</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490909166063673e-06</v>
+        <v>2.640510917936885e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.48784722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>395680.8064405994</v>
+        <v>480602.2981323869</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>306.9061641267051</v>
+        <v>375.520674990889</v>
       </c>
       <c r="AB6" t="n">
-        <v>419.9225535025329</v>
+        <v>513.8039543254897</v>
       </c>
       <c r="AC6" t="n">
-        <v>379.8457343612558</v>
+        <v>464.7672260530433</v>
       </c>
       <c r="AD6" t="n">
-        <v>306906.164126705</v>
+        <v>375520.674990889</v>
       </c>
       <c r="AE6" t="n">
-        <v>419922.5535025329</v>
+        <v>513803.9543254897</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.519320230468371e-06</v>
+        <v>2.690829024135723e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.21006944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>379845.7343612558</v>
+        <v>464767.2260530433</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>302.8807581731436</v>
+        <v>371.4952690373277</v>
       </c>
       <c r="AB7" t="n">
-        <v>414.414815488493</v>
+        <v>508.2962163114499</v>
       </c>
       <c r="AC7" t="n">
-        <v>374.8636471331171</v>
+        <v>459.7851388249045</v>
       </c>
       <c r="AD7" t="n">
-        <v>302880.7581731436</v>
+        <v>371495.2690373277</v>
       </c>
       <c r="AE7" t="n">
-        <v>414414.8154884931</v>
+        <v>508296.2163114499</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526609584120364e-06</v>
+        <v>2.703739011102675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.14930555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>374863.6471331171</v>
+        <v>459785.1388249046</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>304.0192183064667</v>
+        <v>372.6337291706508</v>
       </c>
       <c r="AB8" t="n">
-        <v>415.972506868222</v>
+        <v>509.8539076911788</v>
       </c>
       <c r="AC8" t="n">
-        <v>376.2726746337983</v>
+        <v>461.1941663255858</v>
       </c>
       <c r="AD8" t="n">
-        <v>304019.2183064666</v>
+        <v>372633.7291706508</v>
       </c>
       <c r="AE8" t="n">
-        <v>415972.506868222</v>
+        <v>509853.9076911788</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525539815495669e-06</v>
+        <v>2.70184437137715e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.15798611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>376272.6746337983</v>
+        <v>461194.1663255858</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>518.92045164359</v>
+        <v>618.9423685818464</v>
       </c>
       <c r="AB2" t="n">
-        <v>710.0098550933695</v>
+        <v>846.8642545038375</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.2475110283477</v>
+        <v>766.0407186354367</v>
       </c>
       <c r="AD2" t="n">
-        <v>518920.45164359</v>
+        <v>618942.3685818464</v>
       </c>
       <c r="AE2" t="n">
-        <v>710009.8550933695</v>
+        <v>846864.2545038376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083870694603379e-06</v>
+        <v>1.890175848661613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.52256944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>642247.5110283478</v>
+        <v>766040.7186354367</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.6242457909633</v>
+        <v>484.5565279955479</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.6247438530777</v>
+        <v>662.9916187288028</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.7875753169473</v>
+        <v>599.7166291519061</v>
       </c>
       <c r="AD3" t="n">
-        <v>404624.2457909633</v>
+        <v>484556.5279955479</v>
       </c>
       <c r="AE3" t="n">
-        <v>553624.7438530776</v>
+        <v>662991.6187288028</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306105016490234e-06</v>
+        <v>2.27773310070812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>500787.5753169473</v>
+        <v>599716.6291519061</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.8500732169736</v>
+        <v>448.6970145669865</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.6769426922381</v>
+        <v>613.9270504457655</v>
       </c>
       <c r="AC4" t="n">
-        <v>456.5112836002278</v>
+        <v>555.334714403248</v>
       </c>
       <c r="AD4" t="n">
-        <v>368850.0732169736</v>
+        <v>448697.0145669865</v>
       </c>
       <c r="AE4" t="n">
-        <v>504676.9426922381</v>
+        <v>613927.0504457655</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390079705412052e-06</v>
+        <v>2.424177625584748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.22569444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>456511.2836002278</v>
+        <v>555334.7144032479</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>343.9735073386706</v>
+        <v>423.9057000347041</v>
       </c>
       <c r="AB5" t="n">
-        <v>470.6397277809133</v>
+        <v>580.0064801870901</v>
       </c>
       <c r="AC5" t="n">
-        <v>425.7225327085087</v>
+        <v>524.651475762241</v>
       </c>
       <c r="AD5" t="n">
-        <v>343973.5073386705</v>
+        <v>423905.7000347041</v>
       </c>
       <c r="AE5" t="n">
-        <v>470639.7277809134</v>
+        <v>580006.4801870901</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435101839066217e-06</v>
+        <v>2.502692295380722e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74826388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>425722.5327085087</v>
+        <v>524651.4757622411</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>333.9096946742069</v>
+        <v>403.8397851849658</v>
       </c>
       <c r="AB6" t="n">
-        <v>456.8699753093142</v>
+        <v>552.5514102439924</v>
       </c>
       <c r="AC6" t="n">
-        <v>413.2669460868301</v>
+        <v>499.8166791610801</v>
       </c>
       <c r="AD6" t="n">
-        <v>333909.6946742069</v>
+        <v>403839.7851849658</v>
       </c>
       <c r="AE6" t="n">
-        <v>456869.9753093142</v>
+        <v>552551.4102439925</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.460428312735235e-06</v>
+        <v>2.54685945397196e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.48784722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>413266.9460868301</v>
+        <v>499816.67916108</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>324.5475990743536</v>
+        <v>394.4776895851126</v>
       </c>
       <c r="AB7" t="n">
-        <v>444.060343083087</v>
+        <v>539.7417780177653</v>
       </c>
       <c r="AC7" t="n">
-        <v>401.6798471818423</v>
+        <v>488.2295802560922</v>
       </c>
       <c r="AD7" t="n">
-        <v>324547.5990743536</v>
+        <v>394477.6895851126</v>
       </c>
       <c r="AE7" t="n">
-        <v>444060.343083087</v>
+        <v>539741.7780177654</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478003276657625e-06</v>
+        <v>2.577508656420741e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.31423611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>401679.8471818423</v>
+        <v>488229.5802560922</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>316.4602690551671</v>
+        <v>386.3903595659261</v>
       </c>
       <c r="AB8" t="n">
-        <v>432.9949013630165</v>
+        <v>528.6763362976948</v>
       </c>
       <c r="AC8" t="n">
-        <v>391.6704756890903</v>
+        <v>478.2202087633403</v>
       </c>
       <c r="AD8" t="n">
-        <v>316460.2690551672</v>
+        <v>386390.3595659261</v>
       </c>
       <c r="AE8" t="n">
-        <v>432994.9013630165</v>
+        <v>528676.3362976948</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492019371325272e-06</v>
+        <v>2.601951501646883e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.18402777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>391670.4756890903</v>
+        <v>478220.2087633403</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>316.8497655253494</v>
+        <v>386.7798560361084</v>
       </c>
       <c r="AB9" t="n">
-        <v>433.5278276168914</v>
+        <v>529.2092625515697</v>
       </c>
       <c r="AC9" t="n">
-        <v>392.152540209262</v>
+        <v>478.7022732835121</v>
       </c>
       <c r="AD9" t="n">
-        <v>316849.7655253494</v>
+        <v>386779.8560361083</v>
       </c>
       <c r="AE9" t="n">
-        <v>433527.8276168914</v>
+        <v>529209.2625515697</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.491873116424392e-06</v>
+        <v>2.601696445870611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.18402777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>392152.540209262</v>
+        <v>478702.273283512</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>645.7918545427187</v>
+        <v>769.6702767197678</v>
       </c>
       <c r="AB2" t="n">
-        <v>883.6009057112245</v>
+        <v>1053.09682806414</v>
       </c>
       <c r="AC2" t="n">
-        <v>799.2712754118048</v>
+        <v>952.5907448243787</v>
       </c>
       <c r="AD2" t="n">
-        <v>645791.8545427187</v>
+        <v>769670.2767197678</v>
       </c>
       <c r="AE2" t="n">
-        <v>883600.9057112245</v>
+        <v>1053096.82806414</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.372654416458921e-07</v>
+        <v>1.593289132238603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.78819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>799271.2754118048</v>
+        <v>952590.7448243788</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.3298089683285</v>
+        <v>569.1960446823805</v>
       </c>
       <c r="AB3" t="n">
-        <v>651.7354588185325</v>
+        <v>778.7991394916687</v>
       </c>
       <c r="AC3" t="n">
-        <v>589.5347413453525</v>
+        <v>704.4716426700405</v>
       </c>
       <c r="AD3" t="n">
-        <v>476329.8089683285</v>
+        <v>569196.0446823805</v>
       </c>
       <c r="AE3" t="n">
-        <v>651735.4588185325</v>
+        <v>778799.1394916687</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183581133698077e-06</v>
+        <v>2.012009483815216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.25694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>589534.7413453525</v>
+        <v>704471.6426700405</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.6441121007</v>
+        <v>513.5102583062009</v>
       </c>
       <c r="AB4" t="n">
-        <v>575.5438316846812</v>
+        <v>702.6073898882689</v>
       </c>
       <c r="AC4" t="n">
-        <v>520.6147361695356</v>
+        <v>635.5515267129969</v>
       </c>
       <c r="AD4" t="n">
-        <v>420644.1121007</v>
+        <v>513510.2583062009</v>
       </c>
       <c r="AE4" t="n">
-        <v>575543.8316846812</v>
+        <v>702607.3898882689</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.279669899228799e-06</v>
+        <v>2.175354016802023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.96354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>520614.7361695356</v>
+        <v>635551.5267129969</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.5832008377193</v>
+        <v>486.112011227922</v>
       </c>
       <c r="AB5" t="n">
-        <v>552.2003402203874</v>
+        <v>665.1198995104144</v>
       </c>
       <c r="AC5" t="n">
-        <v>499.499114767798</v>
+        <v>601.6417898027815</v>
       </c>
       <c r="AD5" t="n">
-        <v>403583.2008377194</v>
+        <v>486112.011227922</v>
       </c>
       <c r="AE5" t="n">
-        <v>552200.3402203873</v>
+        <v>665119.8995104143</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.328114259715516e-06</v>
+        <v>2.257706218912659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>499499.114767798</v>
+        <v>601641.7898027815</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>391.5129119034677</v>
+        <v>463.8749786789642</v>
       </c>
       <c r="AB6" t="n">
-        <v>535.6852383969787</v>
+        <v>634.6942105482917</v>
       </c>
       <c r="AC6" t="n">
-        <v>484.5601910833244</v>
+        <v>574.1198858924813</v>
       </c>
       <c r="AD6" t="n">
-        <v>391512.9119034677</v>
+        <v>463874.9786789642</v>
       </c>
       <c r="AE6" t="n">
-        <v>535685.2383969787</v>
+        <v>634694.2105482917</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.359924252614032e-06</v>
+        <v>2.311781098588997e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.01736111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>484560.1910833244</v>
+        <v>574119.8858924813</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>371.1647568620024</v>
+        <v>453.7788185982256</v>
       </c>
       <c r="AB7" t="n">
-        <v>507.8439949720018</v>
+        <v>620.880198914678</v>
       </c>
       <c r="AC7" t="n">
-        <v>459.3760768553966</v>
+        <v>561.6242641410926</v>
       </c>
       <c r="AD7" t="n">
-        <v>371164.7568620024</v>
+        <v>453778.8185982256</v>
       </c>
       <c r="AE7" t="n">
-        <v>507843.9949720018</v>
+        <v>620880.198914678</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.383405297667817e-06</v>
+        <v>2.351697318941796e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>459376.0768553966</v>
+        <v>561624.2641410925</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>361.457944952017</v>
+        <v>444.0720066882402</v>
       </c>
       <c r="AB8" t="n">
-        <v>494.5627066824415</v>
+        <v>607.5989106251178</v>
       </c>
       <c r="AC8" t="n">
-        <v>447.3623360797869</v>
+        <v>549.6105233654827</v>
       </c>
       <c r="AD8" t="n">
-        <v>361457.944952017</v>
+        <v>444072.0066882402</v>
       </c>
       <c r="AE8" t="n">
-        <v>494562.7066824415</v>
+        <v>607598.9106251178</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.402180722470343e-06</v>
+        <v>2.383614296738925e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.56597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>447362.3360797869</v>
+        <v>549610.5233654827</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>356.7019880402878</v>
+        <v>428.9787139612127</v>
       </c>
       <c r="AB9" t="n">
-        <v>488.0553966178029</v>
+        <v>586.9476016469182</v>
       </c>
       <c r="AC9" t="n">
-        <v>441.4760745546503</v>
+        <v>530.9301463318684</v>
       </c>
       <c r="AD9" t="n">
-        <v>356701.9880402878</v>
+        <v>428978.7139612127</v>
       </c>
       <c r="AE9" t="n">
-        <v>488055.3966178029</v>
+        <v>586947.6016469182</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.411074344745223e-06</v>
+        <v>2.398732865169143e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.47048611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>441476.0745546503</v>
+        <v>530930.1463318684</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>350.6387498695893</v>
+        <v>422.9154757905143</v>
       </c>
       <c r="AB10" t="n">
-        <v>479.7594066614639</v>
+        <v>578.6516116905791</v>
       </c>
       <c r="AC10" t="n">
-        <v>433.9718422362492</v>
+        <v>523.4259140134673</v>
       </c>
       <c r="AD10" t="n">
-        <v>350638.7498695893</v>
+        <v>422915.4757905143</v>
       </c>
       <c r="AE10" t="n">
-        <v>479759.4066614638</v>
+        <v>578651.6116905791</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.420744394361562e-06</v>
+        <v>2.415171308621048e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH10" t="n">
-        <v>433971.8422362492</v>
+        <v>523425.9140134673</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>346.1461689672188</v>
+        <v>418.4228948881437</v>
       </c>
       <c r="AB11" t="n">
-        <v>473.6124592721591</v>
+        <v>572.5046643012745</v>
       </c>
       <c r="AC11" t="n">
-        <v>428.4115508784849</v>
+        <v>517.865622655703</v>
       </c>
       <c r="AD11" t="n">
-        <v>346146.1689672188</v>
+        <v>418422.8948881437</v>
       </c>
       <c r="AE11" t="n">
-        <v>473612.4592721591</v>
+        <v>572504.6643012745</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.42514414929649e-06</v>
+        <v>2.4226506004106e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.33159722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>428411.550878485</v>
+        <v>517865.622655703</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>343.4384149232694</v>
+        <v>415.7151408441943</v>
       </c>
       <c r="AB12" t="n">
-        <v>469.90759073155</v>
+        <v>568.7997957606653</v>
       </c>
       <c r="AC12" t="n">
-        <v>425.0602697915759</v>
+        <v>514.514341568794</v>
       </c>
       <c r="AD12" t="n">
-        <v>343438.4149232694</v>
+        <v>415715.1408441943</v>
       </c>
       <c r="AE12" t="n">
-        <v>469907.5907315501</v>
+        <v>568799.7957606653</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.429661544737699e-06</v>
+        <v>2.430329873264045e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.28819444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>425060.2697915759</v>
+        <v>514514.341568794</v>
       </c>
     </row>
   </sheetData>
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.8047346904123</v>
+        <v>495.2780519407982</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.3446731954575</v>
+        <v>677.6612807909481</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.9616026308618</v>
+        <v>612.9862392558405</v>
       </c>
       <c r="AD2" t="n">
-        <v>408804.7346904122</v>
+        <v>495278.0519407982</v>
       </c>
       <c r="AE2" t="n">
-        <v>559344.6731954576</v>
+        <v>677661.2807909481</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256170806260124e-06</v>
+        <v>2.265173223874327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.58680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>505961.6026308617</v>
+        <v>612986.2392558404</v>
       </c>
     </row>
     <row r="3">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.0583812519716</v>
+        <v>411.7529599406113</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.441658961487</v>
+        <v>563.3785650492983</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.6886304571113</v>
+        <v>509.6105055077746</v>
       </c>
       <c r="AD3" t="n">
-        <v>335058.3812519716</v>
+        <v>411752.9599406113</v>
       </c>
       <c r="AE3" t="n">
-        <v>458441.658961487</v>
+        <v>563378.5650492983</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.451426956182545e-06</v>
+        <v>2.617266267588536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.22569444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>414688.6304571113</v>
+        <v>509610.5055077747</v>
       </c>
     </row>
     <row r="4">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.7076724399208</v>
+        <v>382.4875024745811</v>
       </c>
       <c r="AB4" t="n">
-        <v>418.2827243029532</v>
+        <v>523.3362750434137</v>
       </c>
       <c r="AC4" t="n">
-        <v>378.3624081589692</v>
+        <v>473.3897954603448</v>
       </c>
       <c r="AD4" t="n">
-        <v>305707.6724399208</v>
+        <v>382487.5024745811</v>
       </c>
       <c r="AE4" t="n">
-        <v>418282.7243029532</v>
+        <v>523336.2750434137</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.521068570859608e-06</v>
+        <v>2.74284657883897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.52256944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>378362.4081589693</v>
+        <v>473389.7954603448</v>
       </c>
     </row>
     <row r="5">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>291.7497531359271</v>
+        <v>358.9215263179844</v>
       </c>
       <c r="AB5" t="n">
-        <v>399.1848833312888</v>
+        <v>491.0922668084655</v>
       </c>
       <c r="AC5" t="n">
-        <v>361.0872383256524</v>
+        <v>444.2231101165902</v>
       </c>
       <c r="AD5" t="n">
-        <v>291749.7531359271</v>
+        <v>358921.5263179844</v>
       </c>
       <c r="AE5" t="n">
-        <v>399184.8833312888</v>
+        <v>491092.2668084655</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.557111160911772e-06</v>
+        <v>2.807839897819458e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.19270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>361087.2383256524</v>
+        <v>444223.1101165902</v>
       </c>
     </row>
     <row r="6">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>287.7508585288246</v>
+        <v>354.9226317108819</v>
       </c>
       <c r="AB6" t="n">
-        <v>393.7134193110721</v>
+        <v>485.6208027882487</v>
       </c>
       <c r="AC6" t="n">
-        <v>356.1379631522771</v>
+        <v>439.273834943215</v>
       </c>
       <c r="AD6" t="n">
-        <v>287750.8585288245</v>
+        <v>354922.6317108819</v>
       </c>
       <c r="AE6" t="n">
-        <v>393713.4193110721</v>
+        <v>485620.8027882488</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.56426368054783e-06</v>
+        <v>2.820737583295105e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.12326388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>356137.9631522771</v>
+        <v>439273.834943215</v>
       </c>
     </row>
     <row r="7">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>287.8797010767369</v>
+        <v>355.0514742587943</v>
       </c>
       <c r="AB7" t="n">
-        <v>393.8897073692578</v>
+        <v>485.7970908464345</v>
       </c>
       <c r="AC7" t="n">
-        <v>356.2974265256115</v>
+        <v>439.4332983165493</v>
       </c>
       <c r="AD7" t="n">
-        <v>287879.7010767369</v>
+        <v>355051.4742587943</v>
       </c>
       <c r="AE7" t="n">
-        <v>393889.7073692579</v>
+        <v>485797.0908464345</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.569634433726506e-06</v>
+        <v>2.830422322210983e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.07986111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>356297.4265256115</v>
+        <v>439433.2983165493</v>
       </c>
     </row>
   </sheetData>
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.5207396745632</v>
+        <v>409.4492523243526</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.0742781530909</v>
+        <v>560.226530656326</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.2608733609551</v>
+        <v>506.7592968533596</v>
       </c>
       <c r="AD2" t="n">
-        <v>335520.7396745632</v>
+        <v>409449.2523243526</v>
       </c>
       <c r="AE2" t="n">
-        <v>459074.2781530909</v>
+        <v>560226.530656326</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.417753022084545e-06</v>
+        <v>2.645073964752131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.23263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>415260.8733609552</v>
+        <v>506759.2968533596</v>
       </c>
     </row>
     <row r="3">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.2270409655678</v>
+        <v>353.1554641068062</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.0507560767333</v>
+        <v>483.2028861104199</v>
       </c>
       <c r="AC3" t="n">
-        <v>345.588368128373</v>
+        <v>437.0866808395507</v>
       </c>
       <c r="AD3" t="n">
-        <v>279227.0409655678</v>
+        <v>353155.4641068061</v>
       </c>
       <c r="AE3" t="n">
-        <v>382050.7560767332</v>
+        <v>483202.8861104199</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580710701457133e-06</v>
+        <v>2.949100906222584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>345588.3681283729</v>
+        <v>437086.6808395507</v>
       </c>
     </row>
     <row r="4">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.2294793033538</v>
+        <v>329.906271453667</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.8986746816545</v>
+        <v>451.392315040404</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.2641345015255</v>
+        <v>408.3120660260402</v>
       </c>
       <c r="AD4" t="n">
-        <v>265229.4793033538</v>
+        <v>329906.271453667</v>
       </c>
       <c r="AE4" t="n">
-        <v>362898.6746816545</v>
+        <v>451392.315040404</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62766775485265e-06</v>
+        <v>3.03670775837751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>328264.1345015254</v>
+        <v>408312.0660260402</v>
       </c>
     </row>
     <row r="5">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>265.8533846464884</v>
+        <v>330.5301767968016</v>
       </c>
       <c r="AB5" t="n">
-        <v>363.7523294968924</v>
+        <v>452.2459698556419</v>
       </c>
       <c r="AC5" t="n">
-        <v>329.0363176993091</v>
+        <v>409.0842492238239</v>
       </c>
       <c r="AD5" t="n">
-        <v>265853.3846464884</v>
+        <v>330530.1767968016</v>
       </c>
       <c r="AE5" t="n">
-        <v>363752.3294968924</v>
+        <v>452245.9698556419</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.628383644430109e-06</v>
+        <v>3.038043379500142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.13194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>329036.3176993091</v>
+        <v>409084.2492238239</v>
       </c>
     </row>
   </sheetData>
@@ -25687,28 +25687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.4877509728955</v>
+        <v>355.0517399442449</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.8804474780184</v>
+        <v>485.7974543689893</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.8616819643426</v>
+        <v>439.4336271450217</v>
       </c>
       <c r="AD2" t="n">
-        <v>283487.7509728955</v>
+        <v>355051.7399442449</v>
       </c>
       <c r="AE2" t="n">
-        <v>387880.4474780184</v>
+        <v>485797.4543689893</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546470434076336e-06</v>
+        <v>2.973919993431778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.39930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>350861.6819643426</v>
+        <v>439433.6271450217</v>
       </c>
     </row>
     <row r="3">
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.1275949996178</v>
+        <v>310.8101021790493</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.499122095236</v>
+        <v>425.2640937753417</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.0978023725783</v>
+        <v>384.6774855273267</v>
       </c>
       <c r="AD3" t="n">
-        <v>248127.5949996178</v>
+        <v>310810.1021790493</v>
       </c>
       <c r="AE3" t="n">
-        <v>339499.122095236</v>
+        <v>425264.0937753418</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.671679052481857e-06</v>
+        <v>3.214700809812888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>307097.8023725783</v>
+        <v>384677.4855273267</v>
       </c>
     </row>
     <row r="4">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.6802405494113</v>
+        <v>311.3627477288427</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.2552761174639</v>
+        <v>426.0202477975701</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.7817901161939</v>
+        <v>385.3614732709424</v>
       </c>
       <c r="AD4" t="n">
-        <v>248680.2405494113</v>
+        <v>311362.7477288427</v>
       </c>
       <c r="AE4" t="n">
-        <v>340255.2761174639</v>
+        <v>426020.2477975701</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67343444165556e-06</v>
+        <v>3.218076488290082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.22743055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>307781.7901161939</v>
+        <v>385361.4732709424</v>
       </c>
     </row>
   </sheetData>
@@ -26196,28 +26196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.4298034878858</v>
+        <v>281.560996634138</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.3923171072677</v>
+        <v>385.2441771893279</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.3913661413399</v>
+        <v>348.4770136119762</v>
       </c>
       <c r="AD2" t="n">
-        <v>214429.8034878858</v>
+        <v>281560.9966341379</v>
       </c>
       <c r="AE2" t="n">
-        <v>293392.3171072677</v>
+        <v>385244.1771893279</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.721272811352582e-06</v>
+        <v>3.550296132575974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>265391.3661413399</v>
+        <v>348477.0136119762</v>
       </c>
     </row>
   </sheetData>
@@ -26493,28 +26493,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.4203202251431</v>
+        <v>583.4372390724453</v>
       </c>
       <c r="AB2" t="n">
-        <v>662.8052532482725</v>
+        <v>798.2845699333104</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.5480501312719</v>
+        <v>722.0974109783051</v>
       </c>
       <c r="AD2" t="n">
-        <v>484420.3202251431</v>
+        <v>583437.2390724453</v>
       </c>
       <c r="AE2" t="n">
-        <v>662805.2532482725</v>
+        <v>798284.5699333104</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.125809457014254e-06</v>
+        <v>1.978002805295071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>599548.0501312719</v>
+        <v>722097.4109783052</v>
       </c>
     </row>
     <row r="3">
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.2196711872134</v>
+        <v>468.2410232097566</v>
       </c>
       <c r="AB3" t="n">
-        <v>518.8650841094957</v>
+        <v>640.6680252916124</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.3453287138039</v>
+        <v>579.5235681410011</v>
       </c>
       <c r="AD3" t="n">
-        <v>379219.6711872134</v>
+        <v>468241.0232097566</v>
       </c>
       <c r="AE3" t="n">
-        <v>518865.0841094956</v>
+        <v>640668.0252916124</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341719468998225e-06</v>
+        <v>2.357348179181178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>469345.3287138039</v>
+        <v>579523.568141001</v>
       </c>
     </row>
     <row r="4">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>355.8854986686451</v>
+        <v>425.2571699685079</v>
       </c>
       <c r="AB4" t="n">
-        <v>486.9382398385526</v>
+        <v>581.8556209731659</v>
       </c>
       <c r="AC4" t="n">
-        <v>440.4655376504724</v>
+        <v>526.3241371469792</v>
       </c>
       <c r="AD4" t="n">
-        <v>355885.4986686451</v>
+        <v>425257.1699685079</v>
       </c>
       <c r="AE4" t="n">
-        <v>486938.2398385527</v>
+        <v>581855.6209731658</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42096853725095e-06</v>
+        <v>2.496585665901746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.04340277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>440465.5376504724</v>
+        <v>526324.1371469792</v>
       </c>
     </row>
     <row r="5">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.7812527710852</v>
+        <v>410.9777196780128</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.9577471972336</v>
+        <v>562.3178471208244</v>
       </c>
       <c r="AC5" t="n">
-        <v>410.6326569384286</v>
+        <v>508.6510210096673</v>
       </c>
       <c r="AD5" t="n">
-        <v>331781.2527710852</v>
+        <v>410977.7196780128</v>
       </c>
       <c r="AE5" t="n">
-        <v>453957.7471972335</v>
+        <v>562317.8471208244</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.462181007041277e-06</v>
+        <v>2.568994349583085e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.61805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>410632.6569384286</v>
+        <v>508651.0210096673</v>
       </c>
     </row>
     <row r="6">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>321.3627093775377</v>
+        <v>390.6490398228289</v>
       </c>
       <c r="AB6" t="n">
-        <v>439.7026364924866</v>
+        <v>534.5032505049022</v>
       </c>
       <c r="AC6" t="n">
-        <v>397.7380339921691</v>
+        <v>483.4910104567372</v>
       </c>
       <c r="AD6" t="n">
-        <v>321362.7093775377</v>
+        <v>390649.0398228288</v>
       </c>
       <c r="AE6" t="n">
-        <v>439702.6364924866</v>
+        <v>534503.2505049022</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488572743967938e-06</v>
+        <v>2.615363590267909e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.35763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>397738.0339921691</v>
+        <v>483491.0104567372</v>
       </c>
     </row>
     <row r="7">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>312.5899750268991</v>
+        <v>381.8763054721903</v>
       </c>
       <c r="AB7" t="n">
-        <v>427.6993943282182</v>
+        <v>522.5000083406338</v>
       </c>
       <c r="AC7" t="n">
-        <v>386.8803644134023</v>
+        <v>472.6333408779705</v>
       </c>
       <c r="AD7" t="n">
-        <v>312589.9750268991</v>
+        <v>381876.3054721903</v>
       </c>
       <c r="AE7" t="n">
-        <v>427699.3943282182</v>
+        <v>522500.0083406338</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.504427481449999e-06</v>
+        <v>2.643219738589762e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>386880.3644134023</v>
+        <v>472633.3408779704</v>
       </c>
     </row>
     <row r="8">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>310.008717639238</v>
+        <v>379.2950480845291</v>
       </c>
       <c r="AB8" t="n">
-        <v>424.1676040933813</v>
+        <v>518.968218105797</v>
       </c>
       <c r="AC8" t="n">
-        <v>383.6856432816796</v>
+        <v>469.4386197462478</v>
       </c>
       <c r="AD8" t="n">
-        <v>310008.717639238</v>
+        <v>379295.0480845291</v>
       </c>
       <c r="AE8" t="n">
-        <v>424167.6040933813</v>
+        <v>518968.218105797</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.507455637832442e-06</v>
+        <v>2.648540089899681e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.17534722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>383685.6432816796</v>
+        <v>469438.6197462478</v>
       </c>
     </row>
     <row r="9">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>311.0960064895294</v>
+        <v>380.3823369348205</v>
       </c>
       <c r="AB9" t="n">
-        <v>425.6552806661487</v>
+        <v>520.4558946785643</v>
       </c>
       <c r="AC9" t="n">
-        <v>385.0313380903092</v>
+        <v>470.7843145548774</v>
       </c>
       <c r="AD9" t="n">
-        <v>311096.0064895294</v>
+        <v>380382.3369348205</v>
       </c>
       <c r="AE9" t="n">
-        <v>425655.2806661486</v>
+        <v>520455.8946785643</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.508071116771964e-06</v>
+        <v>2.649621462117145e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>385031.3380903092</v>
+        <v>470784.3145548773</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>616.7471002665555</v>
+        <v>729.4134825625345</v>
       </c>
       <c r="AB2" t="n">
-        <v>843.8605915464537</v>
+        <v>998.0157062937994</v>
       </c>
       <c r="AC2" t="n">
-        <v>763.3237210550383</v>
+        <v>902.7664880089596</v>
       </c>
       <c r="AD2" t="n">
-        <v>616747.1002665556</v>
+        <v>729413.4825625345</v>
       </c>
       <c r="AE2" t="n">
-        <v>843860.5915464538</v>
+        <v>998015.7062937994</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.726522265788953e-07</v>
+        <v>1.663126912755771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>763323.7210550383</v>
+        <v>902766.4880089597</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.3944504660043</v>
+        <v>542.6302705631728</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.2495571283882</v>
+        <v>742.45067534253</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.4355643077397</v>
+        <v>671.5922249239056</v>
       </c>
       <c r="AD3" t="n">
-        <v>450394.4504660043</v>
+        <v>542630.2705631728</v>
       </c>
       <c r="AE3" t="n">
-        <v>616249.5571283882</v>
+        <v>742450.67534253</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.212618500679374e-06</v>
+        <v>2.07344249905116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>557435.5643077397</v>
+        <v>671592.2249239057</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.6239837418433</v>
+        <v>489.6872379211678</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.7291176565701</v>
+        <v>670.0116823999829</v>
       </c>
       <c r="AC4" t="n">
-        <v>504.5002334451593</v>
+        <v>606.0667077990303</v>
       </c>
       <c r="AD4" t="n">
-        <v>407623.9837418433</v>
+        <v>489687.2379211678</v>
       </c>
       <c r="AE4" t="n">
-        <v>557729.1176565702</v>
+        <v>670011.6823999828</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.305615811057414e-06</v>
+        <v>2.232457535954563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.77256944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>504500.2334451593</v>
+        <v>606066.7077990302</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>391.1986019716418</v>
+        <v>473.091263950374</v>
       </c>
       <c r="AB5" t="n">
-        <v>535.255185681879</v>
+        <v>647.3043386504447</v>
       </c>
       <c r="AC5" t="n">
-        <v>484.171181995771</v>
+        <v>585.5265210669908</v>
       </c>
       <c r="AD5" t="n">
-        <v>391198.6019716418</v>
+        <v>473091.263950374</v>
       </c>
       <c r="AE5" t="n">
-        <v>535255.1856818789</v>
+        <v>647304.3386504448</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352778732749135e-06</v>
+        <v>2.313100876098431e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.22569444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>484171.181995771</v>
+        <v>585526.5210669908</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>369.804167258469</v>
+        <v>451.7820805832218</v>
       </c>
       <c r="AB6" t="n">
-        <v>505.9823762514704</v>
+        <v>618.1481738726856</v>
       </c>
       <c r="AC6" t="n">
-        <v>457.6921284127546</v>
+        <v>559.1529797346867</v>
       </c>
       <c r="AD6" t="n">
-        <v>369804.167258469</v>
+        <v>451782.0805832219</v>
       </c>
       <c r="AE6" t="n">
-        <v>505982.3762514704</v>
+        <v>618148.1738726855</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.38286051579999e-06</v>
+        <v>2.36453737272943e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>457692.1284127546</v>
+        <v>559152.9797346867</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>359.8908748355418</v>
+        <v>441.8687881602946</v>
       </c>
       <c r="AB7" t="n">
-        <v>492.4185722148259</v>
+        <v>604.584369836041</v>
       </c>
       <c r="AC7" t="n">
-        <v>445.4228347964489</v>
+        <v>546.883686118381</v>
       </c>
       <c r="AD7" t="n">
-        <v>359890.8748355418</v>
+        <v>441868.7881602946</v>
       </c>
       <c r="AE7" t="n">
-        <v>492418.5722148259</v>
+        <v>604584.369836041</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.407082519344883e-06</v>
+        <v>2.405954299433097e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>445422.8347964489</v>
+        <v>546883.686118381</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>352.8375144109773</v>
+        <v>424.7282026724579</v>
       </c>
       <c r="AB8" t="n">
-        <v>482.7678533096365</v>
+        <v>581.1318645823203</v>
       </c>
       <c r="AC8" t="n">
-        <v>436.6931669587017</v>
+        <v>525.6694550502775</v>
       </c>
       <c r="AD8" t="n">
-        <v>352837.5144109774</v>
+        <v>424728.202672458</v>
       </c>
       <c r="AE8" t="n">
-        <v>482767.8533096365</v>
+        <v>581131.8645823203</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.419490068663178e-06</v>
+        <v>2.427169826040362e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>436693.1669587017</v>
+        <v>525669.4550502775</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>343.6659416965766</v>
+        <v>415.3860377574649</v>
       </c>
       <c r="AB9" t="n">
-        <v>470.2189029005617</v>
+        <v>568.3495023983987</v>
       </c>
       <c r="AC9" t="n">
-        <v>425.3418707641065</v>
+        <v>514.1070235730313</v>
       </c>
       <c r="AD9" t="n">
-        <v>343665.9416965765</v>
+        <v>415386.0377574649</v>
       </c>
       <c r="AE9" t="n">
-        <v>470218.9029005617</v>
+        <v>568349.5023983987</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.434957988654627e-06</v>
+        <v>2.453618245443684e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>425341.8707641065</v>
+        <v>514107.0235730313</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>338.4991017924672</v>
+        <v>410.2191978533555</v>
       </c>
       <c r="AB10" t="n">
-        <v>463.1494045988703</v>
+        <v>561.2800040967072</v>
       </c>
       <c r="AC10" t="n">
-        <v>418.9470754582254</v>
+        <v>507.7122282671501</v>
       </c>
       <c r="AD10" t="n">
-        <v>338499.1017924672</v>
+        <v>410219.1978533556</v>
       </c>
       <c r="AE10" t="n">
-        <v>463149.4045988703</v>
+        <v>561280.0040967072</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.439180825707508e-06</v>
+        <v>2.460838826201032e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.30555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>418947.0754582253</v>
+        <v>507712.2282671501</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>337.6548285355187</v>
+        <v>409.374924596407</v>
       </c>
       <c r="AB11" t="n">
-        <v>461.9942326820059</v>
+        <v>560.1248321798429</v>
       </c>
       <c r="AC11" t="n">
-        <v>417.9021515278126</v>
+        <v>506.6673043367373</v>
       </c>
       <c r="AD11" t="n">
-        <v>337654.8285355187</v>
+        <v>409374.924596407</v>
       </c>
       <c r="AE11" t="n">
-        <v>461994.2326820059</v>
+        <v>560124.8321798429</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.443783243619074e-06</v>
+        <v>2.468708447925333e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.26215277777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>417902.1515278126</v>
+        <v>506667.3043367373</v>
       </c>
     </row>
     <row r="12">
@@ -28592,28 +28592,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>338.3910265385719</v>
+        <v>410.1111225994603</v>
       </c>
       <c r="AB12" t="n">
-        <v>463.0015312685471</v>
+        <v>561.132130766384</v>
       </c>
       <c r="AC12" t="n">
-        <v>418.8133149510066</v>
+        <v>507.5784677599314</v>
       </c>
       <c r="AD12" t="n">
-        <v>338391.0265385719</v>
+        <v>410111.1225994602</v>
       </c>
       <c r="AE12" t="n">
-        <v>463001.5312685471</v>
+        <v>561132.130766384</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.443901862637413e-06</v>
+        <v>2.468911273227506e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.26215277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>418813.3149510067</v>
+        <v>507578.4677599314</v>
       </c>
     </row>
   </sheetData>
@@ -28889,28 +28889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.7916539193907</v>
+        <v>271.8950816533713</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.9414638962814</v>
+        <v>372.0188458825701</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.9379276929421</v>
+        <v>336.5138893632663</v>
       </c>
       <c r="AD2" t="n">
-        <v>206791.6539193908</v>
+        <v>271895.0816533713</v>
       </c>
       <c r="AE2" t="n">
-        <v>282941.4638962814</v>
+        <v>372018.8458825701</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.689650408986576e-06</v>
+        <v>3.621699063319745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.65972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>255937.9276929421</v>
+        <v>336513.8893632663</v>
       </c>
     </row>
   </sheetData>
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.4734958768424</v>
+        <v>440.7923507979853</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.7427635594141</v>
+        <v>603.1115407478646</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.1932787565709</v>
+        <v>545.5514217712514</v>
       </c>
       <c r="AD2" t="n">
-        <v>356473.4958768424</v>
+        <v>440792.3507979853</v>
       </c>
       <c r="AE2" t="n">
-        <v>487742.7635594141</v>
+        <v>603111.5407478646</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.360012529453047e-06</v>
+        <v>2.505731332413417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.67534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>441193.2787565709</v>
+        <v>545551.4217712514</v>
       </c>
     </row>
     <row r="3">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.4944835043008</v>
+        <v>370.4350944503644</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.3085886271419</v>
+        <v>506.8456386699649</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.7219443792348</v>
+        <v>458.4730022776243</v>
       </c>
       <c r="AD3" t="n">
-        <v>295494.4835043008</v>
+        <v>370435.0944503644</v>
       </c>
       <c r="AE3" t="n">
-        <v>404308.588627142</v>
+        <v>506845.6386699649</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.532509315733094e-06</v>
+        <v>2.823545023656662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.80034722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>365721.9443792348</v>
+        <v>458473.0022776243</v>
       </c>
     </row>
     <row r="4">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.0381537369615</v>
+        <v>342.6006102164966</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.0558240036648</v>
+        <v>468.7612693704086</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.8792681689446</v>
+        <v>424.0233517322696</v>
       </c>
       <c r="AD4" t="n">
-        <v>277038.1537369615</v>
+        <v>342600.6102164966</v>
       </c>
       <c r="AE4" t="n">
-        <v>379055.8240036648</v>
+        <v>468761.2693704086</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.593779379929809e-06</v>
+        <v>2.936430983360602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.22743055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>342879.2681689446</v>
+        <v>424023.3517322696</v>
       </c>
     </row>
     <row r="5">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>273.1269675629806</v>
+        <v>338.6894240425157</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.704366531068</v>
+        <v>463.4098118978117</v>
       </c>
       <c r="AC5" t="n">
-        <v>338.0385462867147</v>
+        <v>419.1826298500398</v>
       </c>
       <c r="AD5" t="n">
-        <v>273126.9675629805</v>
+        <v>338689.4240425157</v>
       </c>
       <c r="AE5" t="n">
-        <v>373704.3665310681</v>
+        <v>463409.8118978117</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.610161610314176e-06</v>
+        <v>2.966614137618329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.08854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>338038.5462867147</v>
+        <v>419182.6298500398</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.2072502307164</v>
+        <v>526.5458770528172</v>
       </c>
       <c r="AB2" t="n">
-        <v>600.9427362220257</v>
+        <v>720.4432985483005</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.5896049054223</v>
+        <v>651.68520128337</v>
       </c>
       <c r="AD2" t="n">
-        <v>439207.2502307164</v>
+        <v>526545.8770528173</v>
       </c>
       <c r="AE2" t="n">
-        <v>600942.7362220257</v>
+        <v>720443.2985483005</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.212501090117451e-06</v>
+        <v>2.166044711250075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.01215277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>543589.6049054223</v>
+        <v>651685.20128337</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.8176344651652</v>
+        <v>427.357156191792</v>
       </c>
       <c r="AB3" t="n">
-        <v>478.6359203400756</v>
+        <v>584.7289147687169</v>
       </c>
       <c r="AC3" t="n">
-        <v>432.9555798725514</v>
+        <v>528.9232078153759</v>
       </c>
       <c r="AD3" t="n">
-        <v>349817.6344651652</v>
+        <v>427357.156191792</v>
       </c>
       <c r="AE3" t="n">
-        <v>478635.9203400756</v>
+        <v>584728.9147687169</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.412387680616896e-06</v>
+        <v>2.523127517797649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.46006944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>432955.5798725514</v>
+        <v>528923.2078153759</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.9603017292559</v>
+        <v>397.5850748019033</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.7838004782485</v>
+        <v>543.9934395595391</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.0023289940268</v>
+        <v>492.0754691875635</v>
       </c>
       <c r="AD4" t="n">
-        <v>319960.3017292559</v>
+        <v>397585.0748019033</v>
       </c>
       <c r="AE4" t="n">
-        <v>437783.8004782485</v>
+        <v>543993.4395595391</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.484383077295655e-06</v>
+        <v>2.651742039863992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>396002.3289940268</v>
+        <v>492075.4691875635</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.3227395464892</v>
+        <v>374.2338378867853</v>
       </c>
       <c r="AB5" t="n">
-        <v>419.1242862530057</v>
+        <v>512.0432470284086</v>
       </c>
       <c r="AC5" t="n">
-        <v>379.1236526176484</v>
+        <v>463.1745581892274</v>
       </c>
       <c r="AD5" t="n">
-        <v>306322.7395464892</v>
+        <v>374233.8378867853</v>
       </c>
       <c r="AE5" t="n">
-        <v>419124.2862530057</v>
+        <v>512043.2470284086</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52292149368694e-06</v>
+        <v>2.720588108279658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>379123.6526176484</v>
+        <v>463174.5581892274</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.3310125278418</v>
+        <v>364.2421108681379</v>
       </c>
       <c r="AB6" t="n">
-        <v>405.4531645422068</v>
+        <v>498.3721253176096</v>
       </c>
       <c r="AC6" t="n">
-        <v>366.7572835753883</v>
+        <v>450.8081891469672</v>
       </c>
       <c r="AD6" t="n">
-        <v>296331.0125278418</v>
+        <v>364242.1108681379</v>
       </c>
       <c r="AE6" t="n">
-        <v>405453.1645422068</v>
+        <v>498372.1253176096</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.544203151824686e-06</v>
+        <v>2.758606237443923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>366757.2835753883</v>
+        <v>450808.1891469672</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>295.1071646889911</v>
+        <v>363.0182630292872</v>
       </c>
       <c r="AB7" t="n">
-        <v>403.7786419367352</v>
+        <v>496.697602712138</v>
       </c>
       <c r="AC7" t="n">
-        <v>365.2425750571756</v>
+        <v>449.2934806287546</v>
       </c>
       <c r="AD7" t="n">
-        <v>295107.1646889911</v>
+        <v>363018.2630292872</v>
       </c>
       <c r="AE7" t="n">
-        <v>403778.6419367352</v>
+        <v>496697.602712138</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.5488569423158e-06</v>
+        <v>2.766919894530672e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.09722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>365242.5750571756</v>
+        <v>449293.4806287546</v>
       </c>
     </row>
   </sheetData>
